--- a/input/CT69.xlsx
+++ b/input/CT69.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu.Lin\PythonWorkspace\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PythonSpace\clinicaltrialpac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D5F99-4109-4BB3-9C19-C43FDDDBDD84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7F550-448A-46E8-BD9E-CA50DB98ACD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2525,27 +2527,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O70" sqref="O2:O70"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" customWidth="1"/>
-    <col min="20" max="20" width="17.6328125" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" customWidth="1"/>
-    <col min="29" max="29" width="24.1796875" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="29" max="29" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>336</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>91</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>180</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>303</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>167</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>52</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>266</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>264</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>272</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>302</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>294</v>
       </c>
@@ -3726,7 +3728,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>317</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>234</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>284</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>325</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>166</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67</v>
       </c>
@@ -4376,7 +4378,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>68</v>
       </c>
@@ -4465,7 +4467,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>108</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>307</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>97</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>55</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>346</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>126</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>131</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>143</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>168</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>241</v>
       </c>
@@ -5640,7 +5642,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>270</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>300</v>
       </c>
@@ -5824,7 +5826,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>304</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>326</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>190</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>298</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>60</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>100</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>152</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>33</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -6732,7 +6734,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>34</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>104</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>208</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>230</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>281</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>178</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43</v>
       </c>
@@ -7717,7 +7719,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>193</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>211</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>216</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>225</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>226</v>
       </c>
@@ -8174,7 +8176,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -8266,7 +8268,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>135</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>162</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -8530,7 +8532,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>337</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>110</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>311</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>142</v>
       </c>
@@ -8893,30 +8895,6 @@
       </c>
       <c r="AF70" s="3" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O71">
-        <f>MEDIAN(O2:O70)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O72">
-        <f>MIN(O2:O70)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O73">
-        <f>MAX(O2:O70)</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="O74">
-        <f>AVERAGE(O2:O70)</f>
-        <v>194.7391304347826</v>
       </c>
     </row>
   </sheetData>
